--- a/pred_ohlcv/54_21/2019-11-02 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 OGO ohlcv.xlsx
@@ -3980,7 +3980,7 @@
         <v>1725578.539214884</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1514086.743778406</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1330256.199186406</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1330256.199186406</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>973241.1969864059</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>991347.2306864059</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>118686.8397864059</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>361542.4190864059</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>473069.9185864059</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>157413.7255864059</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>11201.62588640591</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-99348.6135135941</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-467945.7158885943</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-342106.2185885943</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-745791.6226885942</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-705805.6524319904</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-706471.1524319904</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-706471.1524319904</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-703469.1524319904</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-727293.3949319904</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-727813.3949319904</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-777033.1394319905</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-775847.3243319904</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-784417.5945319905</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-784417.5945319905</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-781440.7746319905</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-726477.8332319905</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-683397.0518940059</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-794495.3103940058</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-802240.8563940059</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-839142.835194006</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-772530.8999940059</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-771545.8999940059</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-678188.4114940059</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-683876.6939940059</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-677966.6939940059</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-723454.1223940059</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-712748.3147016981</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 OGO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 OGO ohlcv.xlsx
@@ -4006,7 +4006,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1572012.040278406</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>118686.8397864059</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>361542.4190864059</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>473069.9185864059</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>157413.7255864059</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-45694.45621359409</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>11201.62588640591</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-99348.6135135941</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-467945.7158885943</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-342106.2185885943</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-742044.3710885942</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-745791.6226885942</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-705805.6524319904</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-706471.1524319904</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-706471.1524319904</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-703469.1524319904</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-727293.3949319904</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-727813.3949319904</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-777033.1394319905</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-776032.7204319905</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-780542.4967319905</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-775847.3243319904</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-784417.5945319905</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-784417.5945319905</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-781440.7746319905</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-843427.9804319905</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-726477.8332319905</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-901038.4675940059</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-683397.0518940059</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-702512.8201940058</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-799793.4411940059</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-794495.3103940058</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-801793.8346940059</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-801348.9215940059</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-798602.5299940059</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-802602.5299940059</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-802240.8563940059</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-839142.835194006</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-796892.835194006</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-814725.926494006</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-812725.926494006</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-821119.2671940059</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-819119.2671940059</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-757986.2671940059</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-772307.8999940059</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-772530.8999940059</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-771545.8999940059</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-678188.4114940059</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-683876.6939940059</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-677876.6939940059</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-677966.6939940059</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-677791.1099940059</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-723454.1223940059</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-710758.3147016981</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-712758.3147016981</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-712748.3147016981</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-712735.3147016981</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-684735.3147016981</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-609242.5057016981</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-667211.2478016982</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-678735.3147016981</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-677235.3147016981</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-657411.5497016981</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-656659.6707016982</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-656659.6707016982</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-661729.0252016982</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-490548.5271016982</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-490548.5271016982</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
